--- a/doc/设计文档/功能设计/功能清单.xlsx
+++ b/doc/设计文档/功能设计/功能清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="156">
   <si>
     <t>一级菜单</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -793,22 +793,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -822,6 +810,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1157,1227 +1157,1233 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="15" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="15" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="15" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="12" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="5" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="5" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="5" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="5" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="9"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="9"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="9"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="12" t="s">
         <v>131</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="9"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="9"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="9"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="9"/>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="9"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5" t="s">
+      <c r="A40" s="13"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="9"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="9"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="9"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="9"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="9"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="10"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="9"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="9"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="9"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="9"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="9"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="9"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="9"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="9"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="9"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="9"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="9"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9" t="s">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="6"/>
+      <c r="D59" s="5"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="5" t="s">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="6"/>
+      <c r="D60" s="5"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="5" t="s">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D61" s="6"/>
+      <c r="D61" s="5"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="5"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="9"/>
-      <c r="B63" s="8" t="s">
+      <c r="A63" s="13"/>
+      <c r="B63" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="6"/>
+      <c r="D63" s="5"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="5" t="s">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D64" s="6"/>
+      <c r="D64" s="5"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="5" t="s">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="6"/>
+      <c r="D65" s="5"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="5" t="s">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="6"/>
+      <c r="D66" s="5"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="5" t="s">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D67" s="6"/>
+      <c r="D67" s="5"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="5" t="s">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D68" s="6"/>
+      <c r="D68" s="5"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="5" t="s">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D69" s="6"/>
+      <c r="D69" s="5"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="5" t="s">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D70" s="6"/>
+      <c r="D70" s="5"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="5" t="s">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D71" s="6"/>
+      <c r="D71" s="5"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="5" t="s">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D72" s="6"/>
+      <c r="D72" s="5"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="5" t="s">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D73" s="6"/>
+      <c r="D73" s="5"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="5" t="s">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D74" s="6"/>
+      <c r="D74" s="5"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="5" t="s">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D75" s="6"/>
+      <c r="D75" s="5"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="5" t="s">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D76" s="6"/>
+      <c r="D76" s="5"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="5" t="s">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="6"/>
+      <c r="D77" s="5"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="5" t="s">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D78" s="6"/>
+      <c r="D78" s="5"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="6"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="5"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="9"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="6"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="5"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="9"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="6"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="5"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="9"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="6"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="5"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="9"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="6"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="5"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="9"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="6"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="5"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="9"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="6"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="5"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="9"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="6"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="5"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="9"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="6"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="5"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A88" s="9"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="6"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="5"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="10"/>
+      <c r="A89" s="14"/>
       <c r="B89" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="6"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="5"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="12" t="s">
         <v>137</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C90" s="14"/>
-      <c r="D90" s="6"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="5"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="9"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="6"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="5"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="9"/>
-      <c r="B92" s="8" t="s">
+      <c r="A92" s="13"/>
+      <c r="B92" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D92" s="6"/>
+      <c r="D92" s="5"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
       <c r="C93" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D93" s="6"/>
+      <c r="D93" s="5"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
       <c r="C94" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D94" s="6"/>
+      <c r="D94" s="5"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
       <c r="C95" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D95" s="6"/>
+      <c r="D95" s="5"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
       <c r="C96" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D96" s="6"/>
+      <c r="D96" s="5"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
       <c r="C97" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D97" s="6"/>
+      <c r="D97" s="5"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
       <c r="C98" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D98" s="6"/>
+      <c r="D98" s="5"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
       <c r="C99" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D99" s="6"/>
+      <c r="D99" s="5"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="9"/>
-      <c r="B100" s="10"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="14"/>
       <c r="C100" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D100" s="6"/>
+      <c r="D100" s="5"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A101" s="9"/>
-      <c r="B101" s="8" t="s">
+      <c r="A101" s="13"/>
+      <c r="B101" s="12" t="s">
         <v>127</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D101" s="6"/>
+      <c r="D101" s="5"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A102" s="9"/>
-      <c r="B102" s="10"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="14"/>
       <c r="C102" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D102" s="6"/>
+      <c r="D102" s="5"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="9"/>
-      <c r="B103" s="8" t="s">
+      <c r="A103" s="13"/>
+      <c r="B103" s="12" t="s">
         <v>128</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D103" s="6"/>
+      <c r="D103" s="5"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="9"/>
-      <c r="B104" s="10"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="14"/>
       <c r="C104" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D104" s="6"/>
+      <c r="D104" s="5"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="9"/>
+      <c r="A105" s="13"/>
       <c r="B105" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="6"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="5"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A106" s="9"/>
-      <c r="B106" s="8" t="s">
+      <c r="A106" s="13"/>
+      <c r="B106" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D106" s="6"/>
+      <c r="D106" s="5"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
       <c r="C107" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D107" s="6"/>
+      <c r="D107" s="5"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A108" s="9"/>
-      <c r="B108" s="10"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="14"/>
       <c r="C108" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D108" s="6"/>
+      <c r="D108" s="5"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="9"/>
-      <c r="B109" s="8" t="s">
+      <c r="A109" s="13"/>
+      <c r="B109" s="12" t="s">
         <v>113</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D109" s="6"/>
+      <c r="D109" s="5"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
       <c r="C110" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D110" s="6"/>
+      <c r="D110" s="5"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
       <c r="C111" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D111" s="6"/>
+      <c r="D111" s="5"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="12" t="s">
         <v>152</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C112" s="14"/>
-      <c r="D112" s="6"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="5"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A113" s="9"/>
+      <c r="A113" s="13"/>
       <c r="B113" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C113" s="14"/>
-      <c r="D113" s="6"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="5"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A114" s="9"/>
+      <c r="A114" s="13"/>
       <c r="B114" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C114" s="14"/>
-      <c r="D114" s="6"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="5"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="9"/>
+      <c r="A115" s="13"/>
       <c r="B115" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C115" s="14"/>
-      <c r="D115" s="6"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="5"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="9"/>
+      <c r="A116" s="13"/>
       <c r="B116" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C116" s="14"/>
-      <c r="D116" s="6"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="5"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A117" s="10"/>
+      <c r="A117" s="14"/>
       <c r="B117" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C117" s="14"/>
-      <c r="D117" s="6"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="5"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="12" t="s">
         <v>153</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C118" s="14"/>
-      <c r="D118" s="6"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="5"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A119" s="9"/>
+      <c r="A119" s="13"/>
       <c r="B119" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C119" s="14"/>
-      <c r="D119" s="6"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="5"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A120" s="9"/>
+      <c r="A120" s="13"/>
       <c r="B120" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C120" s="14"/>
-      <c r="D120" s="6"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="5"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A121" s="9"/>
+      <c r="A121" s="13"/>
       <c r="B121" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C121" s="14"/>
-      <c r="D121" s="6"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="5"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="9"/>
+      <c r="A122" s="13"/>
       <c r="B122" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C122" s="14"/>
-      <c r="D122" s="6"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="5"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A123" s="9"/>
+      <c r="A123" s="13"/>
       <c r="B123" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C123" s="14"/>
-      <c r="D123" s="6"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="5"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="10"/>
+      <c r="A124" s="14"/>
       <c r="B124" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C124" s="14"/>
-      <c r="D124" s="6"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="5"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="12" t="s">
         <v>154</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C125" s="14"/>
-      <c r="D125" s="6"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="5"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A126" s="9"/>
+      <c r="A126" s="13"/>
       <c r="B126" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C126" s="14"/>
-      <c r="D126" s="6"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="5"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="9"/>
+      <c r="A127" s="13"/>
       <c r="B127" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C127" s="14"/>
-      <c r="D127" s="6"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="5"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="9"/>
+      <c r="A128" s="13"/>
       <c r="B128" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C128" s="14"/>
-      <c r="D128" s="6"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="5"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A129" s="9"/>
+      <c r="A129" s="13"/>
       <c r="B129" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C129" s="14"/>
-      <c r="D129" s="6"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="5"/>
       <c r="E129" s="3"/>
     </row>
     <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A130" s="9"/>
+      <c r="A130" s="13"/>
       <c r="B130" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C130" s="14"/>
-      <c r="D130" s="6"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="5"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A131" s="10"/>
+      <c r="A131" s="14"/>
       <c r="B131" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C131" s="14"/>
-      <c r="D131" s="6"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="5"/>
       <c r="E131" s="3"/>
     </row>
   </sheetData>
@@ -2394,6 +2400,7 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="A34:A46"/>
     <mergeCell ref="A62:A78"/>
+    <mergeCell ref="B63:B78"/>
     <mergeCell ref="A79:A89"/>
     <mergeCell ref="B92:B100"/>
     <mergeCell ref="B101:B102"/>
@@ -2404,7 +2411,6 @@
     <mergeCell ref="A125:A131"/>
     <mergeCell ref="B106:B108"/>
     <mergeCell ref="B109:B111"/>
-    <mergeCell ref="B63:B78"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/设计文档/功能设计/功能清单.xlsx
+++ b/doc/设计文档/功能设计/功能清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="159">
   <si>
     <t>一级菜单</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -637,6 +637,18 @@
   </si>
   <si>
     <t>仓库、库区、库位设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型设置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -784,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -811,6 +823,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -822,6 +837,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1157,7 +1175,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1170,7 +1188,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1181,7 +1199,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="2" t="s">
         <v>82</v>
       </c>
@@ -1192,18 +1210,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="11" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1211,10 +1229,12 @@
       <c r="D6" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="17" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="6" t="s">
         <v>85</v>
       </c>
@@ -1225,7 +1245,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1236,108 +1256,110 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>79</v>
+      <c r="B9" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A10" s="14"/>
+      <c r="B10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12" t="s">
-        <v>86</v>
-      </c>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="C16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12" t="s">
-        <v>87</v>
-      </c>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3"/>
@@ -1346,118 +1368,118 @@
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="4"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
+      <c r="A22" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="A26" s="14"/>
+      <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="C27" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="4"/>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
+    <row r="30" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
@@ -1466,416 +1488,416 @@
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="12" t="s">
-        <v>131</v>
-      </c>
+      <c r="A34" s="15"/>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="13"/>
+      <c r="A35" s="13" t="s">
+        <v>131</v>
+      </c>
       <c r="B35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="13"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="13"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="13"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="13"/>
-      <c r="B39" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>30</v>
-      </c>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="14"/>
+      <c r="B39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="5"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="13"/>
-      <c r="B40" s="15"/>
+    <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="14"/>
+      <c r="B40" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="C40" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="13"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="13"/>
-      <c r="B42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="4"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D42" s="5"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="13"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="13"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="13"/>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="14"/>
       <c r="B45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="C45" s="4"/>
       <c r="D45" s="5"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="5"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="12" t="s">
-        <v>36</v>
-      </c>
+    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="15"/>
       <c r="B47" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="C47" s="7"/>
       <c r="D47" s="5"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="13"/>
+      <c r="A48" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="B48" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="13"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="2" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="13"/>
+      <c r="A50" s="14"/>
       <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="13"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="13"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="13"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="13"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="13"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="2" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="13"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="13"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="13"/>
+      <c r="A58" s="14"/>
       <c r="B58" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="A59" s="14"/>
+      <c r="B59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="4" t="s">
-        <v>46</v>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="4" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="4"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="D62" s="5"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="13"/>
-      <c r="B63" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>92</v>
-      </c>
+    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="4"/>
       <c r="D63" s="5"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="C64" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
       <c r="C70" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
       <c r="C75" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="3"/>
@@ -1884,98 +1906,98 @@
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A79" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C79" s="9"/>
+    <row r="79" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="D79" s="5"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="13"/>
+      <c r="A80" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="C80" s="9"/>
       <c r="D80" s="5"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="13"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="13"/>
+      <c r="A82" s="14"/>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="13"/>
+      <c r="A83" s="14"/>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="13"/>
+      <c r="A84" s="14"/>
       <c r="B84" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="13"/>
+      <c r="A85" s="14"/>
       <c r="B85" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="13"/>
+      <c r="A86" s="14"/>
       <c r="B86" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="13"/>
+      <c r="A87" s="14"/>
       <c r="B87" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A88" s="13"/>
+      <c r="A88" s="14"/>
       <c r="B88" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
@@ -1984,209 +2006,209 @@
     <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="14"/>
       <c r="B89" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="12" t="s">
-        <v>137</v>
-      </c>
+      <c r="A90" s="15"/>
       <c r="B90" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C90" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C90" s="4"/>
       <c r="D90" s="5"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="13"/>
+      <c r="A91" s="13" t="s">
+        <v>137</v>
+      </c>
       <c r="B91" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="5"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="13"/>
-      <c r="B92" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>115</v>
-      </c>
+    <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A92" s="14"/>
+      <c r="B92" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="10"/>
       <c r="D92" s="5"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="C93" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
       <c r="C94" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
       <c r="C95" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
       <c r="C96" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
       <c r="C97" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
       <c r="C98" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
       <c r="C99" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="13"/>
+      <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A101" s="13"/>
-      <c r="B101" s="12" t="s">
-        <v>127</v>
-      </c>
+    <row r="101" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="14"/>
+      <c r="B101" s="15"/>
       <c r="C101" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A102" s="13"/>
-      <c r="B102" s="14"/>
+      <c r="A102" s="14"/>
+      <c r="B102" s="13" t="s">
+        <v>127</v>
+      </c>
       <c r="C102" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="13"/>
-      <c r="B103" s="12" t="s">
-        <v>128</v>
-      </c>
+      <c r="A103" s="14"/>
+      <c r="B103" s="15"/>
       <c r="C103" s="2" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="13"/>
-      <c r="B104" s="14"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="C104" s="2" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="13"/>
-      <c r="B105" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C105" s="7"/>
+      <c r="A105" s="14"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="D105" s="5"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A106" s="13"/>
-      <c r="B106" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="A106" s="14"/>
+      <c r="B106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" s="7"/>
       <c r="D106" s="5"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A107" s="13"/>
-      <c r="B107" s="13"/>
+      <c r="A107" s="14"/>
+      <c r="B107" s="13" t="s">
+        <v>130</v>
+      </c>
       <c r="C107" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A108" s="13"/>
+      <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="13"/>
-      <c r="B109" s="12" t="s">
-        <v>113</v>
-      </c>
+      <c r="A109" s="14"/>
+      <c r="B109" s="15"/>
       <c r="C109" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
+      <c r="A110" s="14"/>
+      <c r="B110" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="C110" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="3"/>
@@ -2195,53 +2217,53 @@
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C112" s="10"/>
+    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="D112" s="5"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A113" s="13"/>
+    <row r="113" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="B113" s="2" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="5"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A114" s="13"/>
+      <c r="A114" s="14"/>
       <c r="B114" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="5"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="13"/>
+      <c r="A115" s="14"/>
       <c r="B115" s="2" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C115" s="10"/>
       <c r="D115" s="5"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="13"/>
+      <c r="A116" s="14"/>
       <c r="B116" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="5"/>
@@ -2250,128 +2272,128 @@
     <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A117" s="14"/>
       <c r="B117" s="2" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="5"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="12" t="s">
-        <v>153</v>
-      </c>
+      <c r="A118" s="15"/>
       <c r="B118" s="2" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="5"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A119" s="13"/>
+      <c r="A119" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="B119" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="5"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A120" s="13"/>
+      <c r="A120" s="14"/>
       <c r="B120" s="2" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="5"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A121" s="13"/>
+      <c r="A121" s="14"/>
       <c r="B121" s="2" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="5"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="13"/>
+    <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A122" s="14"/>
       <c r="B122" s="2" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="5"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A123" s="13"/>
+    <row r="123" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="14"/>
       <c r="B123" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="5"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A124" s="14"/>
       <c r="B124" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="5"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="12" t="s">
-        <v>154</v>
-      </c>
+    <row r="125" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="15"/>
       <c r="B125" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="5"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A126" s="13"/>
+      <c r="A126" s="13" t="s">
+        <v>154</v>
+      </c>
       <c r="B126" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="5"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="13"/>
+      <c r="A127" s="14"/>
       <c r="B127" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="5"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="13"/>
+    <row r="128" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A128" s="14"/>
       <c r="B128" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="5"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A129" s="13"/>
+    <row r="129" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="14"/>
       <c r="B129" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="5"/>
       <c r="E129" s="3"/>
     </row>
     <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A130" s="13"/>
+      <c r="A130" s="14"/>
       <c r="B130" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="5"/>
@@ -2380,37 +2402,46 @@
     <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A131" s="14"/>
       <c r="B131" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="5"/>
       <c r="E131" s="3"/>
     </row>
+    <row r="132" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A132" s="15"/>
+      <c r="B132" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C132" s="10"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A21:A33"/>
+    <mergeCell ref="A113:A118"/>
+    <mergeCell ref="A119:A125"/>
+    <mergeCell ref="A126:A132"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="A80:A90"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A91:A112"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A48:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A35:A47"/>
+    <mergeCell ref="A63:A79"/>
+    <mergeCell ref="B64:B79"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A22:A34"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A20"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A47:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="A34:A46"/>
-    <mergeCell ref="A62:A78"/>
-    <mergeCell ref="B63:B78"/>
-    <mergeCell ref="A79:A89"/>
-    <mergeCell ref="B92:B100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="A90:A111"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="A118:A124"/>
-    <mergeCell ref="A125:A131"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A9:A21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/设计文档/功能设计/功能清单.xlsx
+++ b/doc/设计文档/功能设计/功能清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="171">
   <si>
     <t>一级菜单</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -300,10 +300,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>制令单管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>工序</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -649,6 +645,58 @@
   </si>
   <si>
     <t>设备类型设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存查询</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要支持导出功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要支持导出功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有库存操作记录都要支持导出功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外协工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作站设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具清单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具维保</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具报废</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具领用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工装夹具类型设置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -796,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -826,6 +874,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,9 +897,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1168,15 +1225,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
-        <v>77</v>
+      <c r="A2" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1184,1264 +1241,1360 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
+      <c r="A8" s="20"/>
+      <c r="B8" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>158</v>
+      <c r="A9" s="20"/>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="2" t="s">
-        <v>79</v>
+      <c r="A10" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="18"/>
+      <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="13" t="s">
-        <v>86</v>
-      </c>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="18"/>
+      <c r="B17" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="13" t="s">
-        <v>87</v>
-      </c>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="C19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="2" t="s">
-        <v>70</v>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="2" t="s">
-        <v>71</v>
+      <c r="A24" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="2" t="s">
-        <v>24</v>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="A27" s="15"/>
+      <c r="B27" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="A28" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="A29" s="18"/>
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="18"/>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="3"/>
+      <c r="E30" s="11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="2" t="s">
-        <v>63</v>
+      <c r="A31" s="18"/>
+      <c r="B31" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="4"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="D34" s="5"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="4"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="D35" s="5"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="14"/>
-      <c r="B36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="4"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="D36" s="5"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="14"/>
+    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="18"/>
       <c r="B37" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="14"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="2" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="14"/>
-      <c r="B40" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>30</v>
-      </c>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="18"/>
+      <c r="B40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="5"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A41" s="19"/>
+      <c r="B41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="4"/>
       <c r="D41" s="5"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="14"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="A42" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="14"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="2" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="14"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="14"/>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="18"/>
       <c r="B46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="15"/>
-      <c r="B47" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="7"/>
+    <row r="47" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="18"/>
+      <c r="B47" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D47" s="5"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="4"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D48" s="5"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="14"/>
-      <c r="B49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="5"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="14"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="14"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="5"/>
+      <c r="D51" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="14"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="18"/>
       <c r="B53" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="C53" s="7"/>
       <c r="D53" s="5"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="14"/>
+    <row r="54" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="19"/>
       <c r="B54" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="C54" s="7"/>
       <c r="D54" s="5"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="14"/>
+      <c r="A55" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C55" s="4"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="14"/>
+      <c r="A56" s="18"/>
       <c r="B56" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="14"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="14"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="14"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="A60" s="18"/>
+      <c r="B60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="4"/>
       <c r="D60" s="5"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A61" s="18"/>
+      <c r="B61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="4"/>
       <c r="D61" s="5"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="A62" s="18"/>
+      <c r="B62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="4"/>
       <c r="D62" s="5"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="A63" s="18"/>
       <c r="B63" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="14"/>
-      <c r="B64" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>92</v>
-      </c>
+    <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="18"/>
+      <c r="B64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="4"/>
       <c r="D64" s="5"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="4" t="s">
-        <v>93</v>
-      </c>
+    <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="18"/>
+      <c r="B65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="4"/>
       <c r="D65" s="5"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="4" t="s">
-        <v>94</v>
-      </c>
+    <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="18"/>
+      <c r="B66" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="4"/>
       <c r="D66" s="5"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="4" t="s">
-        <v>95</v>
+    <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
+    <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="4" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
+    <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="4" t="s">
-        <v>98</v>
-      </c>
+    <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="4"/>
       <c r="D70" s="5"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="C71" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A80" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80" s="9"/>
+    <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="D80" s="5"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A81" s="14"/>
-      <c r="B81" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C81" s="4"/>
+    <row r="81" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="D81" s="5"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="14"/>
-      <c r="B82" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C82" s="4"/>
+    <row r="82" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="D82" s="5"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A83" s="14"/>
-      <c r="B83" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C83" s="4"/>
+    <row r="83" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D83" s="5"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A84" s="14"/>
-      <c r="B84" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C84" s="4"/>
+    <row r="84" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="D84" s="5"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="14"/>
-      <c r="B85" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C85" s="4"/>
+    <row r="85" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="D85" s="5"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A86" s="14"/>
-      <c r="B86" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C86" s="4"/>
+    <row r="86" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="D86" s="5"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="14"/>
+      <c r="A87" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="B87" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C87" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="C87" s="9"/>
       <c r="D87" s="5"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A88" s="14"/>
+      <c r="A88" s="18"/>
       <c r="B88" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="14"/>
+      <c r="A89" s="18"/>
       <c r="B89" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="15"/>
+      <c r="A90" s="18"/>
       <c r="B90" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="13" t="s">
-        <v>137</v>
-      </c>
+      <c r="A91" s="18"/>
       <c r="B91" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C91" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="C91" s="4"/>
       <c r="D91" s="5"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="14"/>
+      <c r="A92" s="18"/>
       <c r="B92" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C92" s="10"/>
+        <v>56</v>
+      </c>
+      <c r="C92" s="4"/>
       <c r="D92" s="5"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="14"/>
-      <c r="B93" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>115</v>
-      </c>
+    <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A93" s="18"/>
+      <c r="B93" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" s="4"/>
       <c r="D93" s="5"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="14"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="2" t="s">
-        <v>116</v>
-      </c>
+    <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A94" s="18"/>
+      <c r="B94" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="4"/>
       <c r="D94" s="5"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="14"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="2" t="s">
-        <v>117</v>
-      </c>
+    <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A95" s="18"/>
+      <c r="B95" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C95" s="4"/>
       <c r="D95" s="5"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="2" t="s">
-        <v>118</v>
-      </c>
+    <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A96" s="18"/>
+      <c r="B96" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="4"/>
       <c r="D96" s="5"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="2" t="s">
-        <v>119</v>
-      </c>
+    <row r="97" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A97" s="19"/>
+      <c r="B97" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97" s="4"/>
       <c r="D97" s="5"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="2" t="s">
-        <v>120</v>
-      </c>
+    <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A98" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="10"/>
       <c r="D98" s="5"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="2" t="s">
-        <v>121</v>
-      </c>
+    <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A99" s="18"/>
+      <c r="B99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" s="10"/>
       <c r="D99" s="5"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="14"/>
-      <c r="B100" s="14"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="C100" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="14"/>
-      <c r="B101" s="15"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A102" s="14"/>
-      <c r="B102" s="13" t="s">
-        <v>127</v>
-      </c>
+    <row r="102" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="18"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A103" s="14"/>
-      <c r="B103" s="15"/>
+    <row r="103" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="18"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A104" s="14"/>
-      <c r="B104" s="13" t="s">
-        <v>128</v>
-      </c>
+    <row r="104" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="18"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="14"/>
-      <c r="B105" s="15"/>
+    <row r="105" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="18"/>
+      <c r="B105" s="18"/>
       <c r="C105" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A106" s="14"/>
-      <c r="B106" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C106" s="7"/>
+    <row r="106" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="D106" s="5"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A107" s="14"/>
-      <c r="B107" s="13" t="s">
-        <v>130</v>
-      </c>
+    <row r="107" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="18"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
+    <row r="108" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="18"/>
+      <c r="B108" s="19"/>
       <c r="C108" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="14"/>
-      <c r="B109" s="15"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="17" t="s">
+        <v>126</v>
+      </c>
       <c r="C109" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="14"/>
-      <c r="B110" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="A110" s="18"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="14"/>
-      <c r="B111" s="14"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="C111" s="2" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
+      <c r="A112" s="18"/>
+      <c r="B112" s="19"/>
       <c r="C112" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="13" t="s">
-        <v>152</v>
-      </c>
+    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A113" s="18"/>
       <c r="B113" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C113" s="10"/>
+        <v>128</v>
+      </c>
+      <c r="C113" s="7"/>
       <c r="D113" s="5"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A114" s="14"/>
-      <c r="B114" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C114" s="10"/>
+      <c r="A114" s="18"/>
+      <c r="B114" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="D114" s="5"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="14"/>
-      <c r="B115" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C115" s="10"/>
+      <c r="A115" s="18"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D115" s="5"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="14"/>
-      <c r="B116" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C116" s="10"/>
+      <c r="A116" s="18"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="D116" s="5"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A117" s="14"/>
-      <c r="B117" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C117" s="10"/>
+      <c r="A117" s="18"/>
+      <c r="B117" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D117" s="5"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="15"/>
-      <c r="B118" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C118" s="10"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="D118" s="5"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A119" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C119" s="10"/>
+      <c r="A119" s="19"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="D119" s="5"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A120" s="14"/>
+    <row r="120" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="17" t="s">
+        <v>151</v>
+      </c>
       <c r="B120" s="2" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="5"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A121" s="14"/>
+      <c r="A121" s="18"/>
       <c r="B121" s="2" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="5"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A122" s="14"/>
+      <c r="A122" s="18"/>
       <c r="B122" s="2" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="5"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="14"/>
+    <row r="123" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A123" s="18"/>
       <c r="B123" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="5"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A124" s="14"/>
+      <c r="A124" s="18"/>
       <c r="B124" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="5"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="15"/>
+    <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A125" s="19"/>
       <c r="B125" s="2" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="5"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A126" s="13" t="s">
-        <v>154</v>
+      <c r="A126" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="5"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="14"/>
+      <c r="A127" s="18"/>
       <c r="B127" s="2" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="5"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A128" s="14"/>
+      <c r="A128" s="18"/>
       <c r="B128" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="5"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="14"/>
+    <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A129" s="18"/>
       <c r="B129" s="2" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="5"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A130" s="14"/>
+    <row r="130" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="18"/>
       <c r="B130" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="5"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A131" s="14"/>
+      <c r="A131" s="18"/>
       <c r="B131" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="5"/>
       <c r="E131" s="3"/>
     </row>
     <row r="132" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A132" s="15"/>
-      <c r="B132" s="2" t="s">
-        <v>151</v>
+      <c r="A132" s="18"/>
+      <c r="B132" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="5"/>
       <c r="E132" s="3"/>
     </row>
+    <row r="133" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="19"/>
+      <c r="B133" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" s="10"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A134" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C134" s="10"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A135" s="18"/>
+      <c r="B135" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A136" s="18"/>
+      <c r="B136" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C136" s="10"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="18"/>
+      <c r="B137" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C137" s="10"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A138" s="18"/>
+      <c r="B138" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C138" s="10"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A139" s="18"/>
+      <c r="B139" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" s="10"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A140" s="19"/>
+      <c r="B140" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C140" s="10"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A113:A118"/>
-    <mergeCell ref="A119:A125"/>
-    <mergeCell ref="A126:A132"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="A80:A90"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A91:A112"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A48:A62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="A35:A47"/>
-    <mergeCell ref="A63:A79"/>
-    <mergeCell ref="B64:B79"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A22:A34"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A28:A41"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A55:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="A42:A54"/>
+    <mergeCell ref="A70:A86"/>
+    <mergeCell ref="B71:B86"/>
+    <mergeCell ref="A87:A97"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="A98:A119"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="A126:A133"/>
+    <mergeCell ref="A134:A140"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/设计文档/功能设计/功能清单.xlsx
+++ b/doc/设计文档/功能设计/功能清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="171">
   <si>
     <t>一级菜单</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1201,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1308,7 +1308,9 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="20"/>
@@ -2572,6 +2574,22 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="A126:A133"/>
+    <mergeCell ref="A134:A140"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="A87:A97"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="A98:A119"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A55:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="A42:A54"/>
+    <mergeCell ref="A70:A86"/>
+    <mergeCell ref="B71:B86"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="A28:A41"/>
     <mergeCell ref="A2:A9"/>
@@ -2579,22 +2597,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="A10:A22"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A55:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="A42:A54"/>
-    <mergeCell ref="A70:A86"/>
-    <mergeCell ref="B71:B86"/>
-    <mergeCell ref="A87:A97"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="A98:A119"/>
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="A126:A133"/>
-    <mergeCell ref="A134:A140"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/设计文档/功能设计/功能清单.xlsx
+++ b/doc/设计文档/功能设计/功能清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="169">
   <si>
     <t>一级菜单</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -36,14 +36,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不良分类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良原因</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>仓库设置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -120,14 +112,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>指标管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>首检记录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -148,10 +132,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>送检</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>抽检记录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -160,10 +140,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>仓库管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>物料入库</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -264,10 +240,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>来料检验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>工艺流程</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -660,10 +632,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所有库存操作记录都要支持导出功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>外协工单</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -697,6 +665,30 @@
   </si>
   <si>
     <t>工装夹具类型设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见缺陷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测模板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IQC来料检验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FQC终检</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OQC出货检验</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -844,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -884,6 +876,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1201,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1225,15 +1220,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
-        <v>76</v>
+      <c r="A2" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1241,249 +1236,249 @@
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="16" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
       <c r="E8" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
       <c r="E9" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
-        <v>77</v>
+      <c r="A10" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
       <c r="E11" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="17" t="s">
-        <v>9</v>
+      <c r="A12" s="19"/>
+      <c r="B12" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17" t="s">
-        <v>85</v>
+      <c r="A17" s="19"/>
+      <c r="B17" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="17" t="s">
-        <v>86</v>
+      <c r="A19" s="19"/>
+      <c r="B19" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
@@ -1492,7 +1487,7 @@
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
@@ -1501,1072 +1496,1076 @@
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="17" t="s">
-        <v>21</v>
+      <c r="A28" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="18"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="18"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="14" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="18"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="18"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="18"/>
-      <c r="B34" s="17" t="s">
-        <v>73</v>
+      <c r="A34" s="19"/>
+      <c r="B34" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="18"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="18"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="18"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="19"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="17" t="s">
-        <v>130</v>
+      <c r="A42" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="3"/>
+      <c r="E42" s="11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="18"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="2" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="3"/>
+      <c r="E43" s="11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="18"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="2" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="3"/>
+      <c r="E44" s="11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="18"/>
-      <c r="B45" s="2" t="s">
-        <v>27</v>
+      <c r="A45" s="19"/>
+      <c r="B45" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="3"/>
+      <c r="E45" s="11" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="18"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="18"/>
-      <c r="B47" s="20" t="s">
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="19"/>
+      <c r="B47" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="19"/>
+      <c r="B48" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="18"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="5"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="18"/>
-      <c r="B49" s="20"/>
+    <row r="49" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="19"/>
+      <c r="B49" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="C49" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>159</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D49" s="5"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="18"/>
-      <c r="B50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="4"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D50" s="5"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="18"/>
-      <c r="B51" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="4"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D51" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="18"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="2" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="5" t="s">
-        <v>159</v>
-      </c>
+      <c r="D52" s="5"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="18"/>
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="19"/>
       <c r="B53" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="C53" s="4"/>
       <c r="D53" s="5"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="19"/>
       <c r="B54" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="5"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="17" t="s">
-        <v>36</v>
-      </c>
+    <row r="55" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="20"/>
       <c r="B55" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="5" t="s">
-        <v>161</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="18"/>
+      <c r="A56" s="19"/>
       <c r="B56" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="18"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="18"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="18"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="18"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="18"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="18"/>
+      <c r="A62" s="19"/>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="18"/>
+      <c r="A63" s="19"/>
       <c r="B63" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="18"/>
+      <c r="A64" s="19"/>
       <c r="B64" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="18"/>
+      <c r="A65" s="19"/>
       <c r="B65" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="18"/>
+      <c r="A66" s="19"/>
       <c r="B66" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18" t="s">
-        <v>44</v>
+      <c r="A67" s="19"/>
+      <c r="B67" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="17" t="s">
-        <v>47</v>
+      <c r="A70" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="18"/>
-      <c r="B71" s="17" t="s">
-        <v>49</v>
+      <c r="A71" s="19"/>
+      <c r="B71" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
       <c r="C77" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
       <c r="C79" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="19"/>
       <c r="C81" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
       <c r="C83" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
       <c r="C84" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
       <c r="C85" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A87" s="17" t="s">
-        <v>50</v>
+      <c r="A87" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C87" s="9"/>
       <c r="D87" s="5"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A88" s="18"/>
+      <c r="A88" s="19"/>
       <c r="B88" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A89" s="18"/>
+      <c r="A89" s="19"/>
       <c r="B89" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="18"/>
+      <c r="A90" s="19"/>
       <c r="B90" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A91" s="18"/>
+      <c r="A91" s="19"/>
       <c r="B91" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A92" s="18"/>
+      <c r="A92" s="19"/>
       <c r="B92" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A93" s="18"/>
+      <c r="A93" s="19"/>
       <c r="B93" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A94" s="18"/>
+      <c r="A94" s="19"/>
       <c r="B94" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="18"/>
+      <c r="A95" s="19"/>
       <c r="B95" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
       <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A96" s="18"/>
+      <c r="A96" s="19"/>
       <c r="B96" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A97" s="19"/>
+      <c r="A97" s="20"/>
       <c r="B97" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A98" s="17" t="s">
-        <v>136</v>
+      <c r="A98" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="5"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A99" s="18"/>
+      <c r="A99" s="19"/>
       <c r="B99" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="5"/>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="18"/>
-      <c r="B100" s="17" t="s">
-        <v>109</v>
+      <c r="A100" s="19"/>
+      <c r="B100" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="3"/>
     </row>
     <row r="101" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="18"/>
-      <c r="B101" s="18"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
       <c r="C101" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
+      <c r="A102" s="19"/>
+      <c r="B102" s="19"/>
       <c r="C102" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="19"/>
       <c r="C103" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="18"/>
-      <c r="B104" s="18"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
       <c r="C104" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="3"/>
     </row>
     <row r="105" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="18"/>
-      <c r="B105" s="18"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
       <c r="C105" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="3"/>
     </row>
     <row r="106" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="18"/>
-      <c r="B106" s="18"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
       <c r="C106" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="19"/>
       <c r="C107" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="18"/>
-      <c r="B108" s="19"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A109" s="18"/>
-      <c r="B109" s="17" t="s">
-        <v>126</v>
+      <c r="A109" s="19"/>
+      <c r="B109" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A110" s="18"/>
-      <c r="B110" s="19"/>
+      <c r="A110" s="19"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="18"/>
-      <c r="B111" s="17" t="s">
-        <v>127</v>
+      <c r="A111" s="19"/>
+      <c r="B111" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A112" s="18"/>
-      <c r="B112" s="19"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="3"/>
     </row>
     <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A113" s="18"/>
+      <c r="A113" s="19"/>
       <c r="B113" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="5"/>
       <c r="E113" s="3"/>
     </row>
     <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A114" s="18"/>
-      <c r="B114" s="17" t="s">
-        <v>129</v>
+      <c r="A114" s="19"/>
+      <c r="B114" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="3"/>
     </row>
     <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="18"/>
-      <c r="B115" s="18"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="19"/>
       <c r="C115" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A116" s="18"/>
-      <c r="B116" s="19"/>
+      <c r="A116" s="19"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A117" s="18"/>
-      <c r="B117" s="17" t="s">
-        <v>112</v>
+      <c r="A117" s="19"/>
+      <c r="B117" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A118" s="18"/>
-      <c r="B118" s="18"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="19"/>
       <c r="C118" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="3"/>
     </row>
     <row r="119" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A119" s="19"/>
-      <c r="B119" s="19"/>
+      <c r="A119" s="20"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="17" t="s">
-        <v>151</v>
+      <c r="A120" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="5"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A121" s="18"/>
+      <c r="A121" s="19"/>
       <c r="B121" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="5"/>
       <c r="E121" s="3"/>
     </row>
     <row r="122" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A122" s="18"/>
+      <c r="A122" s="19"/>
       <c r="B122" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="5"/>
       <c r="E122" s="3"/>
     </row>
     <row r="123" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A123" s="18"/>
+      <c r="A123" s="19"/>
       <c r="B123" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="5"/>
       <c r="E123" s="3"/>
     </row>
     <row r="124" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A124" s="18"/>
+      <c r="A124" s="19"/>
       <c r="B124" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="5"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="19"/>
+      <c r="A125" s="20"/>
       <c r="B125" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="5"/>
       <c r="E125" s="3"/>
     </row>
     <row r="126" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A126" s="17" t="s">
-        <v>152</v>
+      <c r="A126" s="18" t="s">
+        <v>145</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="5"/>
       <c r="E126" s="3"/>
     </row>
     <row r="127" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A127" s="18"/>
+      <c r="A127" s="19"/>
       <c r="B127" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="5"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A128" s="18"/>
+      <c r="A128" s="19"/>
       <c r="B128" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="5"/>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A129" s="18"/>
+      <c r="A129" s="19"/>
       <c r="B129" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="5"/>
       <c r="E129" s="3"/>
     </row>
     <row r="130" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="18"/>
+      <c r="A130" s="19"/>
       <c r="B130" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="5"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A131" s="18"/>
+      <c r="A131" s="19"/>
       <c r="B131" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="5"/>
       <c r="E131" s="3"/>
     </row>
     <row r="132" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A132" s="18"/>
+      <c r="A132" s="19"/>
       <c r="B132" s="14" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="5"/>
       <c r="E132" s="3"/>
     </row>
     <row r="133" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="19"/>
+      <c r="A133" s="20"/>
       <c r="B133" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="5"/>
       <c r="E133" s="3"/>
     </row>
     <row r="134" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A134" s="17" t="s">
-        <v>153</v>
+      <c r="A134" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="5"/>
       <c r="E134" s="3"/>
     </row>
     <row r="135" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="18"/>
+      <c r="A135" s="19"/>
       <c r="B135" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="5"/>
       <c r="E135" s="3"/>
     </row>
     <row r="136" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A136" s="18"/>
+      <c r="A136" s="19"/>
       <c r="B136" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C136" s="10"/>
       <c r="D136" s="5"/>
       <c r="E136" s="3"/>
     </row>
     <row r="137" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="18"/>
+      <c r="A137" s="19"/>
       <c r="B137" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="5"/>
       <c r="E137" s="3"/>
     </row>
     <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A138" s="18"/>
+      <c r="A138" s="19"/>
       <c r="B138" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="5"/>
       <c r="E138" s="3"/>
     </row>
     <row r="139" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A139" s="18"/>
+      <c r="A139" s="19"/>
       <c r="B139" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="5"/>
       <c r="E139" s="3"/>
     </row>
     <row r="140" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A140" s="19"/>
+      <c r="A140" s="20"/>
       <c r="B140" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C140" s="10"/>
       <c r="D140" s="5"/>
@@ -2574,22 +2573,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="A126:A133"/>
-    <mergeCell ref="A134:A140"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="A87:A97"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="A98:A119"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A55:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="A42:A54"/>
-    <mergeCell ref="A70:A86"/>
-    <mergeCell ref="B71:B86"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="A28:A41"/>
     <mergeCell ref="A2:A9"/>
@@ -2597,6 +2580,22 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="A10:A22"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A56:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="A70:A86"/>
+    <mergeCell ref="B71:B86"/>
+    <mergeCell ref="A87:A97"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="A98:A119"/>
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="A126:A133"/>
+    <mergeCell ref="A134:A140"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
